--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_8_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_8_sine_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.58000000000009</v>
+        <v>22.57000000000009</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.018587317500285e-16</v>
+        <v>2.000401846171453e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>44.2789914487666</v>
+        <v>40.75902477461633</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[39.424666168863595, 49.1333167286696]</t>
+          <t>[35.44994238650391, 46.068107162728744]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.578658170272348</v>
+        <v>1.62897396852804</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.452868674633117, 1.7044476659115793]</t>
+          <t>[1.4906055233248852, 1.7673424137311953]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.46016894451159</v>
+        <v>54.45545887239378</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[50.08323163645561, 56.837106252567565]</t>
+          <t>[50.98786410022203, 57.92305364456552]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.90674674674682</v>
+        <v>16.71851851851859</v>
       </c>
       <c r="X2" t="n">
-        <v>16.45469469469476</v>
+        <v>16.22148148148154</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.35879879879887</v>
+        <v>17.21555555555563</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.44000000000007</v>
+        <v>22.41000000000006</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.018587317500285e-16</v>
+        <v>2.000401846171453e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>43.7755891079788</v>
+        <v>44.7834564259356</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[38.082826327324824, 49.46835188863278]</t>
+          <t>[38.919918721164535, 50.64699413070666]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.251605481610348</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.1132370364071935, 1.3899739268135018]</t>
+          <t>[1.0126054398958084, 1.2893423303021185]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.31007842379859</v>
+        <v>55.93240505182868</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[50.12277040903791, 56.49738643855926]</t>
+          <t>[52.766863457148574, 59.09794664650879]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>17.96996996997003</v>
+        <v>18.30486486486492</v>
       </c>
       <c r="X3" t="n">
-        <v>17.47579579579585</v>
+        <v>17.8113513513514</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.4641441441442</v>
+        <v>18.79837837837844</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_8_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_8_sine_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.57000000000009</v>
+        <v>22.60000000000009</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.000401846171453e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>1.978125656347718e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.05744303850764332</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>40.75902477461633</v>
+        <v>43.85485167372785</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[35.44994238650391, 46.068107162728744]</t>
+          <t>[38.22289229332421, 49.48681105413149]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62897396852804</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.4906055233248852, 1.7673424137311953]</t>
+          <t>[1.628973968528041, 1.9057108589343494]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.45545887239378</v>
+        <v>52.5075013030622</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[50.98786410022203, 57.92305364456552]</t>
+          <t>[49.079384952506445, 55.93561765361795]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.71851851851859</v>
+        <v>16.24304304304311</v>
       </c>
       <c r="X2" t="n">
-        <v>16.22148148148154</v>
+        <v>15.74534534534541</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.21555555555563</v>
+        <v>16.74074074074081</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.41000000000006</v>
+        <v>22.48000000000008</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +663,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.000401846171453e-16</v>
+        <v>1.978125656347718e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>44.7834564259356</v>
+        <v>44.12822961513046</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[38.919918721164535, 50.64699413070666]</t>
+          <t>[38.813860865238425, 49.442598365022505]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +682,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.150973885098963</v>
+        <v>1.364816027685656</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.0126054398958084, 1.2893423303021185]</t>
+          <t>[1.2390265320464247, 1.490605523324887]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>55.93240505182868</v>
+        <v>54.80075800901929</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[52.766863457148574, 59.09794664650879]</t>
+          <t>[51.610768933768455, 57.990747084270126]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.30486486486492</v>
+        <v>17.59695695695702</v>
       </c>
       <c r="X3" t="n">
-        <v>17.8113513513514</v>
+        <v>17.14690690690696</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.79837837837844</v>
+        <v>18.04700700700707</v>
       </c>
     </row>
   </sheetData>
